--- a/main/main/作成資料（留置所）/過去の進捗/作成資料20210628/基底1で使用できる基底と基底0の情報/Barbara/ICA_limits_result0.xlsx
+++ b/main/main/作成資料（留置所）/過去の進捗/作成資料20210628/基底1で使用できる基底と基底0の情報/Barbara/ICA_limits_result0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\次の進捗\基底1で使用できる基底と基底0の情報\Barbara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\過去の進捗\作成資料20210628\基底1で使用できる基底と基底0の情報\Barbara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5ABD2B-F18A-45FA-AAC2-8A5DA10991F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566D043-5FCB-48D2-9E3B-C0A754E2DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="28560" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICA_limits_result" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>ICA_Basis</t>
   </si>
@@ -118,6 +118,16 @@
     <t>DCT単独</t>
     <rPh sb="3" eb="5">
       <t>タンドク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>準最適含む</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンサイテキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -1199,6 +1209,93 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result!$Z$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>準最適含む</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result!$Z$29:$Z$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51826000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37958599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.221192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result!$AA$29:$AA$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0436-4CA0-A891-348D8716EC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3035,16 +3132,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>614361</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85723</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3405,10 +3502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4019,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="17" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M17">
         <v>1.0677319999999999</v>
       </c>
@@ -4030,7 +4127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="18" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M18">
         <v>0.92127599999999998</v>
       </c>
@@ -4038,7 +4135,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="19" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="19" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M19">
         <v>0.81271099999999996</v>
       </c>
@@ -4051,8 +4148,11 @@
       <c r="U19" t="s">
         <v>14</v>
       </c>
+      <c r="Z19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="20" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M20">
         <v>0.72984400000000005</v>
       </c>
@@ -4060,7 +4160,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="21" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M21">
         <v>0.63553000000000004</v>
       </c>
@@ -4068,7 +4168,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="22" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M22">
         <v>0.51826000000000005</v>
       </c>
@@ -4093,8 +4193,14 @@
       <c r="X22">
         <v>4.6148210000000001</v>
       </c>
+      <c r="Z22">
+        <v>4.2395930000000002</v>
+      </c>
+      <c r="AA22">
+        <v>49.51</v>
+      </c>
     </row>
-    <row r="23" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="23" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M23">
         <v>0.37531799999999998</v>
       </c>
@@ -4119,8 +4225,14 @@
       <c r="X23">
         <v>1.9320040000000001</v>
       </c>
+      <c r="Z23">
+        <v>1.50606</v>
+      </c>
+      <c r="AA23">
+        <v>36.99</v>
+      </c>
     </row>
-    <row r="24" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="24" spans="13:27" x14ac:dyDescent="0.4">
       <c r="M24">
         <v>0.209893</v>
       </c>
@@ -4145,8 +4257,14 @@
       <c r="X24">
         <v>1.489411</v>
       </c>
+      <c r="Z24">
+        <v>1.0677320000000001</v>
+      </c>
+      <c r="AA24">
+        <v>33.619999999999997</v>
+      </c>
     </row>
-    <row r="25" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="25" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R25">
         <v>31.7</v>
       </c>
@@ -4165,8 +4283,14 @@
       <c r="X25">
         <v>1.3159930000000002</v>
       </c>
+      <c r="Z25">
+        <v>0.92127599999999998</v>
+      </c>
+      <c r="AA25">
+        <v>31.7</v>
+      </c>
     </row>
-    <row r="26" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="26" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R26">
         <v>30.32</v>
       </c>
@@ -4185,8 +4309,14 @@
       <c r="X26">
         <v>1.1892589999999998</v>
       </c>
+      <c r="Z26">
+        <v>0.81271099999999996</v>
+      </c>
+      <c r="AA26">
+        <v>30.32</v>
+      </c>
     </row>
-    <row r="27" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R27">
         <v>29.3</v>
       </c>
@@ -4205,8 +4335,14 @@
       <c r="X27">
         <v>1.087731</v>
       </c>
+      <c r="Z27">
+        <v>0.72984399999999994</v>
+      </c>
+      <c r="AA27">
+        <v>29.3</v>
+      </c>
     </row>
-    <row r="28" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R28">
         <v>28.26</v>
       </c>
@@ -4225,8 +4361,14 @@
       <c r="X28">
         <v>0.97286800000000007</v>
       </c>
+      <c r="Z28">
+        <v>0.63552999999999993</v>
+      </c>
+      <c r="AA28">
+        <v>28.25</v>
+      </c>
     </row>
-    <row r="29" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R29">
         <v>26.96</v>
       </c>
@@ -4245,8 +4387,14 @@
       <c r="X29">
         <v>0.84727299999999994</v>
       </c>
+      <c r="Z29">
+        <v>0.51826000000000005</v>
+      </c>
+      <c r="AA29">
+        <v>26.92</v>
+      </c>
     </row>
-    <row r="30" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="30" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R30">
         <v>25.35</v>
       </c>
@@ -4265,8 +4413,14 @@
       <c r="X30">
         <v>0.70273399999999997</v>
       </c>
+      <c r="Z30">
+        <v>0.37958599999999998</v>
+      </c>
+      <c r="AA30">
+        <v>25.17</v>
+      </c>
     </row>
-    <row r="31" spans="13:24" x14ac:dyDescent="0.4">
+    <row r="31" spans="13:27" x14ac:dyDescent="0.4">
       <c r="R31">
         <v>22.98</v>
       </c>
@@ -4284,6 +4438,12 @@
       </c>
       <c r="X31">
         <v>0.497917</v>
+      </c>
+      <c r="Z31">
+        <v>0.221192</v>
+      </c>
+      <c r="AA31">
+        <v>22.73</v>
       </c>
     </row>
   </sheetData>

--- a/main/main/作成資料（留置所）/過去の進捗/作成資料20210628/基底1で使用できる基底と基底0の情報/Barbara/ICA_limits_result0.xlsx
+++ b/main/main/作成資料（留置所）/過去の進捗/作成資料20210628/基底1で使用できる基底と基底0の情報/Barbara/ICA_limits_result0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\過去の進捗\作成資料20210628\基底1で使用できる基底と基底0の情報\Barbara\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566D043-5FCB-48D2-9E3B-C0A754E2DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC96497E-21C7-4450-9B97-3E1BA52B2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICA_limits_result" sheetId="1" r:id="rId1"/>
@@ -3134,12 +3134,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -3504,8 +3504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
